--- a/src/scripts/js/пример.xlsx
+++ b/src/scripts/js/пример.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Опред</t>
   </si>
@@ -34,9 +34,6 @@
     <t>s1</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>health probability</t>
   </si>
   <si>
@@ -53,6 +50,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Выборка итоговая</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Для дисперсии</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Коефф</t>
   </si>
 </sst>
 </file>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -417,32 +429,38 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -452,185 +470,209 @@
         <v>0.7</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
-        <f>(1/$L$13)*((1-B$6)*B2+(B$7-B$6))</f>
-        <v>-7.9999999999999822</v>
+        <f>(1/$L$13)*($B2*$I$13-$H$13*C$2)</f>
+        <v>-1.0602409638554215</v>
       </c>
       <c r="L2" s="1">
-        <f>(1/$L$13)*((1-C$6)*C2+(C$7-C$6))</f>
-        <v>6.9999999999999858</v>
-      </c>
-      <c r="N2" s="1">
-        <f>(1/$L$13)*($B2*$I$13-$H$13*C$2)</f>
-        <v>-7.9999999999999867</v>
-      </c>
-      <c r="O2" s="1">
         <f>(1/$L$13)*(-$B2*$H$13+$H$12*$C2)</f>
-        <v>6.9999999999999902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.2771084337349392</v>
+      </c>
+      <c r="Q2">
+        <f>K2*$A2</f>
+        <v>-68.9156626506024</v>
+      </c>
+      <c r="R2">
+        <f>L2*$A2</f>
+        <v>213.01204819277106</v>
+      </c>
+      <c r="T2">
+        <f>K2*($A2-$Q$7)^2</f>
+        <v>-4766.2710065111596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.4</v>
       </c>
       <c r="C3">
-        <f>1-B3</f>
+        <f t="shared" ref="C3:C4" si="0">1-B3</f>
         <v>0.6</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:L4" si="0">(1/$L$13)*((1-B$6)*B3+(B$7-B$6))</f>
-        <v>1.0000000000000093</v>
+        <f>(1/$L$13)*(B3*$I$13-$H$13*C3)</f>
+        <v>-0.1445783132530119</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999678</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N4" si="1">(1/$L$13)*(B3*$I$13-$H$13*C3)</f>
-        <v>1.0000000000000009</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O4" si="2">(1/$L$13)*(-$B3*$H$13+$H$12*$C3)</f>
-        <v>0.99999999999999889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L3:O5" si="1">(1/$L$13)*(-$B3*$H$13+$H$12*$C3)</f>
+        <v>2.2650602409638552</v>
+      </c>
+      <c r="Q3">
+        <f>K3*$A3</f>
+        <v>-4.3373493975903568</v>
+      </c>
+      <c r="R3">
+        <f>L3*$A3</f>
+        <v>67.951807228915655</v>
+      </c>
+      <c r="T3">
+        <f>K3*($A3-$Q$7)^2</f>
+        <v>-1505.6145033028006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <f>1-B4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999964</v>
+        <f>(1/$L$13)*(B4*$I$13-$H$13*C4)</f>
+        <v>0.77108433734939741</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.999999999999992</v>
-      </c>
-      <c r="N4" s="1">
         <f t="shared" si="1"/>
-        <v>9.9999999999999858</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="2"/>
-        <v>-4.999999999999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>1.2530120481927713</v>
+      </c>
+      <c r="Q4">
+        <f>K4*$A4</f>
+        <v>69.397590361445765</v>
+      </c>
+      <c r="R4">
+        <f>L4*$A4</f>
+        <v>112.77108433734942</v>
+      </c>
+      <c r="T4">
+        <f>K4*($A4-$Q$7)^2</f>
+        <v>1363.3160600013616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>(1/$L$13)*(B5*$I$13-$H$13*C5)</f>
+        <v>4.4337349397590353</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.7951807228915659</v>
+      </c>
+      <c r="Q5">
+        <f>K5*$A5</f>
+        <v>532.04819277108425</v>
+      </c>
+      <c r="R5">
+        <f>L5*$A5</f>
+        <v>-335.42168674698792</v>
+      </c>
+      <c r="T5">
+        <f>K5*($A5-$Q$7)^2</f>
+        <v>643.59630421817531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>AVERAGE(B2:B4)</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C4)</f>
         <v>0.6</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>SUMPRODUCT(B2:B4*1)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G7" s="1"/>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>132.0481927710843</v>
+      </c>
+      <c r="S7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <f>AVERAGE(T2:T5)</f>
+        <v>-1066.2432863986057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <f>SUMSQ(B2:B4)/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUMSQ(C2:C4)/3</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <f>H8</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H8" s="1">
-        <f>B7</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I8" s="1">
-        <f>B6-B7</f>
-        <v>0.23333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H9" s="1">
-        <f>B6-B7</f>
-        <v>0.23333333333333331</v>
-      </c>
-      <c r="I9" s="1">
-        <f>1-2*B6+B7</f>
-        <v>0.3666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L10">
-        <f>MDETERM(H8:I9)</f>
-        <v>6.6666666666666749E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <f>SUMSQ(B2:B4)/$F$1</f>
+        <v>0.125</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUMSQ(C2:C4)/$F$1</f>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H12">
-        <f>SUMPRODUCT(B$2:B$4,B$2:B$4)/$F$1</f>
-        <v>0.16666666666666666</v>
+        <f>SUMPRODUCT(B$2:B$5,B$2:B$5)/$F$1</f>
+        <v>0.32750000000000001</v>
       </c>
       <c r="I12">
-        <f>SUMPRODUCT(B$2:B$4,C$2:C$4)/$F$1</f>
-        <v>0.23333333333333331</v>
+        <f>SUMPRODUCT(B$2:B$5,C$2:C$5)/$F$1</f>
+        <v>0.19749999999999998</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H13">
-        <f>SUMPRODUCT(C$2:C$4,B$2:B$4)/$F$1</f>
-        <v>0.23333333333333331</v>
+        <f>SUMPRODUCT(C$2:C$5,B$2:B$5)/$F$1</f>
+        <v>0.19749999999999998</v>
       </c>
       <c r="I13">
-        <f>SUMPRODUCT(C$2:C$4,C$2:C$4)/$F$1</f>
-        <v>0.36666666666666664</v>
+        <f>SUMPRODUCT(C$2:C$5,C$2:C$5)/$F$1</f>
+        <v>0.27749999999999997</v>
       </c>
       <c r="L13">
         <f>MDETERM(H12:I13)</f>
-        <v>6.6666666666666749E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.1875000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -652,31 +694,31 @@
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>A2</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C19">
-        <f>1/$F$1*N2</f>
-        <v>-2.6666666666666621</v>
+        <f>1/$F$1*K2</f>
+        <v>-0.26506024096385539</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <f>A3</f>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <f>1/$F$1*N3+SUM(C17:C19)</f>
-        <v>-2.3333333333333286</v>
+        <f>1/$F$1*K3+SUM(C17:C19)</f>
+        <v>-0.30120481927710835</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>A4</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <f>1/$F$1*N4+SUM(C18:C20)</f>
-        <v>-1.6666666666666625</v>
+        <f>1/$F$1*K4+SUM(C18:C20)</f>
+        <v>-0.37349397590361444</v>
       </c>
     </row>
   </sheetData>
